--- a/demo/freq_response/ieee39_econ.xlsx
+++ b/demo/freq_response/ieee39_econ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/freq_regulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/freq_response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C43C4-A21B-5C49-92A0-D93D2C87517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E19541-E563-C44F-AFD6-DE7967DAB9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,14 @@
     <sheet name="Area" sheetId="8" r:id="rId7"/>
     <sheet name="GCost" sheetId="17" r:id="rId8"/>
     <sheet name="SFR" sheetId="18" r:id="rId9"/>
-    <sheet name="Region" sheetId="20" r:id="rId10"/>
-    <sheet name="SFRCost" sheetId="19" r:id="rId11"/>
+    <sheet name="SFRCost" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="649">
   <si>
     <t>uid</t>
   </si>
@@ -1911,9 +1910,6 @@
   </si>
   <si>
     <t>SFR 2</t>
-  </si>
-  <si>
-    <t>ZONE2</t>
   </si>
   <si>
     <t>cru</t>
@@ -2071,7 +2067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2084,9 +2080,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4205,63 +4198,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF65FBD-EAB7-C445-A072-4F36C29BC793}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC51C5-4F90-254E-862A-BCE04A26AF67}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -4285,10 +4221,10 @@
         <v>403</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4296,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="D2" t="s">
         <v>312</v>
@@ -4316,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="D3" t="s">
         <v>323</v>
@@ -4336,10 +4272,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="D4" t="s">
         <v>334</v>
@@ -4356,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="D5" t="s">
         <v>344</v>
@@ -4376,10 +4312,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="D6" t="s">
         <v>354</v>
@@ -4396,10 +4332,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="D7" t="s">
         <v>363</v>
@@ -4416,10 +4352,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="D8" t="s">
         <v>372</v>
@@ -4436,10 +4372,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="D9" t="s">
         <v>382</v>
@@ -4456,10 +4392,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="D10" t="s">
         <v>392</v>
@@ -4476,10 +4412,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="D11" t="s">
         <v>408</v>
@@ -10011,8 +9947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A126FED3-6E6D-8C47-8D8F-40641B94E0AB}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10037,7 +9973,7 @@
         <v>621</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10059,8 +9995,8 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>624</v>
+      <c r="G2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -10082,8 +10018,8 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>627</v>
+      <c r="G3" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
